--- a/hmi/doc/hmi设计文档(不含UI设计).xlsx
+++ b/hmi/doc/hmi设计文档(不含UI设计).xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\hmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C090D7FC-4EB9-44B7-A412-50EC3504D1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913DA8C-000C-4A28-848A-665B35F29925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块分化" sheetId="1" r:id="rId1"/>
     <sheet name="Json" sheetId="5" r:id="rId2"/>
     <sheet name="Base" sheetId="12" r:id="rId3"/>
-    <sheet name="Dbus" sheetId="6" r:id="rId4"/>
-    <sheet name="LOG" sheetId="11" r:id="rId5"/>
-    <sheet name="Beat" sheetId="7" r:id="rId6"/>
-    <sheet name="NetMonitor" sheetId="14" r:id="rId7"/>
-    <sheet name="Mqtt" sheetId="16" r:id="rId8"/>
-    <sheet name="WIFI" sheetId="17" r:id="rId9"/>
+    <sheet name="ToUI" sheetId="18" r:id="rId4"/>
+    <sheet name="Dbus" sheetId="6" r:id="rId5"/>
+    <sheet name="LOG" sheetId="11" r:id="rId6"/>
+    <sheet name="Beat" sheetId="7" r:id="rId7"/>
+    <sheet name="NetMonitor" sheetId="14" r:id="rId8"/>
+    <sheet name="Mqtt" sheetId="16" r:id="rId9"/>
+    <sheet name="WIFI" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -826,6 +827,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,9 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,16 +1056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1079,7 +1080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9315451" y="3848101"/>
+          <a:off x="10925176" y="3924301"/>
           <a:ext cx="1295400" cy="590549"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1336,10 +1337,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1358,7 +1359,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="7519988" y="1314450"/>
-          <a:ext cx="2443163" cy="2533651"/>
+          <a:ext cx="4052888" cy="2609851"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1664,16 +1665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1688,7 +1689,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10696575" y="2981325"/>
+          <a:off x="11811000" y="2847975"/>
           <a:ext cx="1428750" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1749,10 +1750,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1771,7 +1772,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="7519988" y="1314450"/>
-          <a:ext cx="4605337" cy="2109788"/>
+          <a:ext cx="5719762" cy="1976438"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2124,6 +2125,153 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形: 圆角 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2B1599-3578-4414-A79B-04650DFBAFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658349" y="4714874"/>
+          <a:ext cx="1914526" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ToUI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>底层的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>c++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>代码，跟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进行信号槽绑定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC5EAE1-F9B5-45E4-9109-D79E6319105E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7519988" y="1314450"/>
+          <a:ext cx="3095624" cy="3400424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2385,6 +2533,183 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8DFF68-89F0-4D85-BEF4-EEB6080AA377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="695325"/>
+          <a:ext cx="6105526" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>底层是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>C++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>实现的，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>ToUI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>这个类继承了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>QT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Object</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>，为了实现跟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>的信号和槽交互。底层的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>c++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>类调用单例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>ToUI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>对象的信号函数实现发消息给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>层。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>618440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCF6235-2CD0-4934-8CF9-4155974C6DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="361950"/>
+          <a:ext cx="5476190" cy="4647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2741,7 +3066,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3239,7 +3564,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3248,6 +3573,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1190884-BBAB-49B7-87C2-3B433D370254}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
+      <c r="C13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="B6:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3271,35 +3735,35 @@
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -3313,7 +3777,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3324,7 +3788,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3333,7 +3797,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3342,7 +3806,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
@@ -3351,7 +3815,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -3360,7 +3824,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
@@ -3369,7 +3833,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3380,7 +3844,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -3389,7 +3853,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
@@ -3433,6 +3897,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C16A01E-7E65-4297-BB1A-8B8B6169DB3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28B073-098F-442F-AE81-835DC267FAEB}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D16"/>
@@ -3452,38 +3933,38 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3494,26 +3975,26 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3524,32 +4005,32 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3572,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5652FA18-46C1-4C05-981D-4A0F9E1AF7DB}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:D17"/>
@@ -3592,38 +4073,38 @@
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3634,7 +4115,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="9" t="s">
         <v>36</v>
       </c>
@@ -3643,56 +4124,56 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3714,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D6CCE-069C-4592-8BFB-4CD301C189B2}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:D9"/>
@@ -3734,32 +4215,32 @@
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3770,7 +4251,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
@@ -3779,7 +4260,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>69</v>
       </c>
@@ -3788,7 +4269,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
@@ -3809,7 +4290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4FD0D5-66A6-4D9A-8C73-59152A96E6DC}">
   <dimension ref="B2:D11"/>
   <sheetViews>
@@ -3828,31 +4309,31 @@
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3863,7 +4344,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
@@ -3872,7 +4353,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>80</v>
       </c>
@@ -3881,7 +4362,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
@@ -3890,7 +4371,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
@@ -3911,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DB08C5-488B-457C-8134-65A73E17D06F}">
   <dimension ref="B2:D29"/>
   <sheetViews>
@@ -3930,31 +4411,31 @@
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3965,7 +4446,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>91</v>
       </c>
@@ -3974,7 +4455,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>92</v>
       </c>
@@ -3983,7 +4464,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>94</v>
       </c>
@@ -3992,7 +4473,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
         <v>96</v>
       </c>
@@ -4001,7 +4482,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
         <v>97</v>
       </c>
@@ -4010,8 +4491,8 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4019,7 +4500,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
         <v>100</v>
       </c>
@@ -4028,7 +4509,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4039,7 +4520,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3" t="s">
         <v>96</v>
       </c>
@@ -4048,7 +4529,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3" t="s">
         <v>97</v>
       </c>
@@ -4057,7 +4538,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>111</v>
       </c>
@@ -4077,7 +4558,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4088,7 +4569,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="3" t="s">
         <v>119</v>
       </c>
@@ -4097,7 +4578,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3" t="s">
         <v>121</v>
       </c>
@@ -4106,7 +4587,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3" t="s">
         <v>123</v>
       </c>
@@ -4115,7 +4596,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="3" t="s">
         <v>69</v>
       </c>
@@ -4124,7 +4605,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4135,7 +4616,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="3" t="s">
         <v>119</v>
       </c>
@@ -4144,7 +4625,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="3" t="s">
         <v>121</v>
       </c>
@@ -4153,7 +4634,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="3" t="s">
         <v>123</v>
       </c>
@@ -4162,7 +4643,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="3" t="s">
         <v>69</v>
       </c>
@@ -4185,143 +4666,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1190884-BBAB-49B7-87C2-3B433D370254}">
-  <dimension ref="B2:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
-      <c r="C8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="B6:B15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>